--- a/DataFiles/POS-TestData.xlsx
+++ b/DataFiles/POS-TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Csharmila\Documents\UiPath\POSweb\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmariam\Documents\UiPath\POSweb\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
   <si>
     <t>SalesPerson</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>TC2-Return a sales slip</t>
+  </si>
+  <si>
+    <t>TC2-Return a sales slip - Invalid Scenario</t>
   </si>
 </sst>
 </file>
@@ -455,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,6 +522,20 @@
       </c>
       <c r="E3" s="1">
         <v>20018160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5649</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1">
+        <v>740</v>
       </c>
     </row>
   </sheetData>

--- a/DataFiles/POS-TestData.xlsx
+++ b/DataFiles/POS-TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmariam\Documents\UiPath\POSweb\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Csharmila\Documents\UiPath\POSweb\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>SalesPerson</t>
   </si>
@@ -105,10 +105,13 @@
     <t>TC1-Place an order with cash tender</t>
   </si>
   <si>
-    <t>TC2-Return a sales slip</t>
-  </si>
-  <si>
-    <t>TC2-Return a sales slip - Invalid Scenario</t>
+    <t>TC2-Get Slip from CUI</t>
+  </si>
+  <si>
+    <t>TC3-Return a sales slip</t>
+  </si>
+  <si>
+    <t>TC4-Return a sales slip - Invalid Scenario</t>
   </si>
 </sst>
 </file>
@@ -458,15 +461,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.77734375" customWidth="1"/>
     <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
@@ -511,18 +514,10 @@
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="1">
-        <v>5649</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="1">
-        <v>740</v>
-      </c>
-      <c r="E3" s="1">
-        <v>20018160</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -537,6 +532,24 @@
       <c r="D4" s="1">
         <v>740</v>
       </c>
+      <c r="E4" s="1">
+        <v>20018160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5649</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1">
+        <v>740</v>
+      </c>
+      <c r="E5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataFiles/POS-TestData.xlsx
+++ b/DataFiles/POS-TestData.xlsx
@@ -111,7 +111,7 @@
     <t>TC3-Return a sales slip</t>
   </si>
   <si>
-    <t>TC4-Return a sales slip - Invalid Scenario</t>
+    <t>TC4-Return a sales slip - Negative Scenario</t>
   </si>
 </sst>
 </file>
@@ -464,12 +464,12 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.77734375" customWidth="1"/>
     <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>

--- a/DataFiles/POS-TestData.xlsx
+++ b/DataFiles/POS-TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Csharmila\Documents\UiPath\POSweb\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmariam\Documents\UiPath\POSweb\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
   <si>
     <t>SalesPerson</t>
   </si>
@@ -112,6 +112,24 @@
   </si>
   <si>
     <t>TC4-Return a sales slip - Negative Scenario</t>
+  </si>
+  <si>
+    <t>SSN</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>TC5 - GUI - Same store -  Returns - Genesis</t>
+  </si>
+  <si>
+    <t>TC6 - GUI - Same store - Exchange downgrade - ADS [REGZ]</t>
+  </si>
+  <si>
+    <t>01/01</t>
   </si>
 </sst>
 </file>
@@ -176,11 +194,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,22 +480,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.6640625" customWidth="1"/>
     <col min="2" max="2" width="10.77734375" customWidth="1"/>
     <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -492,8 +511,17 @@
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -509,8 +537,11 @@
       <c r="E2" s="1">
         <v>200181600</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -518,8 +549,11 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -535,8 +569,11 @@
       <c r="E4" s="1">
         <v>20018160</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -550,6 +587,49 @@
         <v>740</v>
       </c>
       <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5649</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>1234</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="1">
+        <v>44333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5649</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>1556</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="1">
+        <v>19133</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
